--- a/杜子期血常规new.xlsx
+++ b/杜子期血常规new.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu\home\felixdu\work\seven\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/src/seven/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7CCE695-2EF9-40F9-968F-331498B2733D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EC9A59-BD8B-5649-A498-24899011A89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5074" yWindow="5074" windowWidth="24686" windowHeight="13217" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9480" yWindow="5300" windowWidth="24680" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-01-13" sheetId="1" r:id="rId1"/>
+    <sheet name="2023-02-07" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="83">
   <si>
     <t/>
   </si>
@@ -624,13 +625,16 @@
       <t>(P_LCC)</t>
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -658,6 +662,11 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -695,7 +704,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -722,6 +731,9 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1041,21 +1053,21 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="12.3828125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.4609375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.23046875" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.3828125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.84375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.4609375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.83203125" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="16">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1075,7 +1087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="16">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1093,7 +1105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1113,7 +1125,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="16">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1133,7 +1145,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="16">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1153,7 +1165,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1173,7 +1185,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="16">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1193,7 +1205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="16">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1213,7 +1225,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="16">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1233,7 +1245,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="16">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1253,7 +1265,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1273,7 +1285,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="16">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1291,7 +1303,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="16">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1309,7 +1321,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="16">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1329,7 +1341,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1349,7 +1361,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1369,7 +1381,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="16">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1389,7 +1401,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="16">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1409,7 +1421,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="16">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1427,7 +1439,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="16">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1445,7 +1457,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="16">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1463,7 +1475,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="16">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1481,7 +1493,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="16">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1499,7 +1511,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="16">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1519,7 +1531,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1539,7 +1551,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="16">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1559,7 +1571,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="16">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1577,7 +1589,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1595,7 +1607,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1613,7 +1625,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1631,7 +1643,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1649,7 +1661,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1667,7 +1679,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1691,4 +1703,625 @@
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C568EA-A181-2045-9AC4-6558D7203F28}">
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="H15" sqref="H15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <cols>
+    <col min="2" max="2" width="24" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="10">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10">
+        <v>6.38</v>
+      </c>
+      <c r="D2" s="10"/>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="16">
+      <c r="A3" s="10">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.62</v>
+      </c>
+      <c r="D3" s="10"/>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="16">
+      <c r="A4" s="10">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="10">
+        <v>4.33</v>
+      </c>
+      <c r="D4" s="10"/>
+      <c r="E4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="10">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="D5" s="10"/>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="16">
+      <c r="A6" s="10">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.21</v>
+      </c>
+      <c r="D6" s="10"/>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="16">
+      <c r="A7" s="10">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0</v>
+      </c>
+      <c r="D7" s="10"/>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="16">
+      <c r="A8" s="10">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="10">
+        <v>25.4</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="16">
+      <c r="A9" s="10">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="10">
+        <v>67.8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10">
+        <v>3.5</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="16">
+      <c r="A11" s="10">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="10">
+        <v>3.3</v>
+      </c>
+      <c r="D11" s="10"/>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="16">
+      <c r="A12" s="10">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0</v>
+      </c>
+      <c r="D12" s="10"/>
+      <c r="E12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="16">
+      <c r="A13" s="10">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2.74</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="10">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="10">
+        <v>94</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="10">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10">
+        <v>30</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="16">
+      <c r="A16" s="10">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="10">
+        <v>109.6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="16">
+      <c r="A17" s="10">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="10">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="16">
+      <c r="A18" s="10">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="10">
+        <v>312</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="16">
+      <c r="A19" s="10">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="10">
+        <v>14.1</v>
+      </c>
+      <c r="D19" s="10"/>
+      <c r="E19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="16">
+      <c r="A20" s="10">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="10">
+        <v>57.7</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="16">
+      <c r="A21" s="10">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C21" s="10">
+        <v>46</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E21" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="16">
+      <c r="A22" s="10">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C22" s="10">
+        <v>9.6</v>
+      </c>
+      <c r="D22" s="10"/>
+      <c r="E22" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="16">
+      <c r="A23" s="10">
+        <v>22</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C23" s="10">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D23" s="10"/>
+      <c r="E23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24" s="10">
+        <v>23</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C24" s="10">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E24" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="16">
+      <c r="A25" s="10">
+        <v>24</v>
+      </c>
+      <c r="B25" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="10">
+        <v>13</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F25" s="4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="16">
+      <c r="A26" s="10">
+        <v>25</v>
+      </c>
+      <c r="B26" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="10">
+        <v>28.6</v>
+      </c>
+      <c r="D26" s="10"/>
+      <c r="E26" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F26" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="10">
+        <v>26</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="D27" s="10"/>
+      <c r="E27" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="10">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D28" s="10"/>
+      <c r="E28" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="10">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="D29" s="10"/>
+      <c r="E29" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F29" s="4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="10">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="10">
+        <v>0.4</v>
+      </c>
+      <c r="D30" s="10"/>
+      <c r="E30" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="10">
+        <v>30</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" s="10">
+        <v>1.6E-2</v>
+      </c>
+      <c r="D31" s="10"/>
+      <c r="E31" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F31" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" s="10">
+        <v>31</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32" s="10">
+        <v>0.34</v>
+      </c>
+      <c r="D32" s="10"/>
+      <c r="E32" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F32" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/杜子期血常规new.xlsx
+++ b/杜子期血常规new.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/felixdu/Documents/src/seven/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\felixdu\work\src\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93EC9A59-BD8B-5649-A498-24899011A89C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD25CEAE-4629-4515-8A9E-23C1DD59EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9480" yWindow="5300" windowWidth="24680" windowHeight="13220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-86" yWindow="0" windowWidth="16629" windowHeight="17880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-01-13" sheetId="1" r:id="rId1"/>
     <sheet name="2023-02-07" sheetId="2" r:id="rId2"/>
+    <sheet name="2024-05-26" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="106">
   <si>
     <t/>
   </si>
@@ -628,13 +629,105 @@
   </si>
   <si>
     <t>项目</t>
+  </si>
+  <si>
+    <t>3.50--9.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0--1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.92--6.44</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.15--3.43</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.19--0.68</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.03--0.51</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01--0.07</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>50.00--70.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>20.00--40.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3.00--10.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.50--5.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4.30--5.80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>130.00--175.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40.00--50.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>82.00--100.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">27.00--34.00 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>316.00--354.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12.00--16.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>125.00--350.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6.50--44.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9.00--20.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.10--0.50</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>11.00--45.00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -704,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -733,9 +826,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -754,9 +848,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -794,7 +888,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -900,7 +994,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1042,7 +1136,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1052,22 +1146,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.33203125" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.1640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.33203125" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.83203125" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3046875" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.15234375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.3046875" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.84375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.4609375" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.4609375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16">
+    <row r="1" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1087,7 +1181,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="16">
+    <row r="2" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1105,7 +1199,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1125,7 +1219,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16">
+    <row r="4" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1145,7 +1239,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="16">
+    <row r="5" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1165,7 +1259,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1185,7 +1279,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16">
+    <row r="7" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1205,7 +1299,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
+    <row r="8" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1225,7 +1319,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
+    <row r="9" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1245,7 +1339,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="16">
+    <row r="10" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1265,7 +1359,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1285,7 +1379,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16">
+    <row r="12" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1303,7 +1397,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
+    <row r="13" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1321,7 +1415,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="16">
+    <row r="14" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1341,7 +1435,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1361,7 +1455,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1381,7 +1475,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16">
+    <row r="17" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1401,7 +1495,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16">
+    <row r="18" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1421,7 +1515,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16">
+    <row r="19" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1439,7 +1533,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16">
+    <row r="20" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1457,7 +1551,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16">
+    <row r="21" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1475,7 +1569,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16">
+    <row r="22" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1493,7 +1587,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16">
+    <row r="23" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1511,7 +1605,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="16">
+    <row r="24" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1531,7 +1625,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1551,7 +1645,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16">
+    <row r="26" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1571,7 +1665,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="16">
+    <row r="27" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1589,7 +1683,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1607,7 +1701,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1625,7 +1719,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1643,7 +1737,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1661,7 +1755,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1679,7 +1773,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1709,17 +1803,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C568EA-A181-2045-9AC4-6558D7203F28}">
   <dimension ref="A1:F32"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13"/>
+  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.69140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1739,17 +1833,17 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="10">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="10">
+      <c r="C2" s="1">
         <v>6.38</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="1"/>
       <c r="E2" s="4" t="s">
         <v>52</v>
       </c>
@@ -1757,17 +1851,17 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="16">
-      <c r="A3" s="10">
+    <row r="3" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="10">
+      <c r="C3" s="1">
         <v>1.62</v>
       </c>
-      <c r="D3" s="10"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
         <v>51</v>
       </c>
@@ -1775,17 +1869,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="16">
-      <c r="A4" s="10">
+    <row r="4" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
       <c r="B4" s="7" t="s">
         <v>57</v>
       </c>
-      <c r="C4" s="10">
+      <c r="C4" s="1">
         <v>4.33</v>
       </c>
-      <c r="D4" s="10"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="4" t="s">
         <v>51</v>
       </c>
@@ -1793,17 +1887,17 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="10">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="10">
+      <c r="C5" s="1">
         <v>0.22</v>
       </c>
-      <c r="D5" s="10"/>
+      <c r="D5" s="1"/>
       <c r="E5" s="4" t="s">
         <v>51</v>
       </c>
@@ -1811,17 +1905,17 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="16">
-      <c r="A6" s="10">
+    <row r="6" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="10">
+      <c r="C6" s="1">
         <v>0.21</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="1"/>
       <c r="E6" s="4" t="s">
         <v>51</v>
       </c>
@@ -1829,17 +1923,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="16">
-      <c r="A7" s="10">
+    <row r="7" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>60</v>
       </c>
-      <c r="C7" s="10">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="10"/>
+      <c r="D7" s="1"/>
       <c r="E7" s="4" t="s">
         <v>51</v>
       </c>
@@ -1847,14 +1941,14 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="16">
-      <c r="A8" s="10">
+    <row r="8" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>7</v>
       </c>
       <c r="B8" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="C8" s="10">
+      <c r="C8" s="1">
         <v>25.4</v>
       </c>
       <c r="D8" s="1" t="s">
@@ -1867,14 +1961,14 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="16">
-      <c r="A9" s="10">
+    <row r="9" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>8</v>
       </c>
       <c r="B9" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="C9" s="10">
+      <c r="C9" s="1">
         <v>67.8</v>
       </c>
       <c r="D9" s="1" t="s">
@@ -1887,14 +1981,14 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="10">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C10" s="10">
+      <c r="C10" s="1">
         <v>3.5</v>
       </c>
       <c r="E10" s="4" t="s">
@@ -1904,17 +1998,17 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="16">
-      <c r="A11" s="10">
+    <row r="11" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>10</v>
       </c>
       <c r="B11" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="C11" s="10">
+      <c r="C11" s="1">
         <v>3.3</v>
       </c>
-      <c r="D11" s="10"/>
+      <c r="D11" s="1"/>
       <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
@@ -1922,17 +2016,17 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="16">
-      <c r="A12" s="10">
+    <row r="12" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="C12" s="10">
+      <c r="C12" s="1">
         <v>0</v>
       </c>
-      <c r="D12" s="10"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="4" t="s">
         <v>6</v>
       </c>
@@ -1940,14 +2034,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="16">
-      <c r="A13" s="10">
+    <row r="13" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>12</v>
       </c>
       <c r="B13" s="7" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="10">
+      <c r="C13" s="1">
         <v>2.74</v>
       </c>
       <c r="D13" s="1" t="s">
@@ -1960,14 +2054,14 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="10">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C14" s="10">
+      <c r="C14" s="1">
         <v>94</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -1980,14 +2074,14 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="10">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
         <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="10">
+      <c r="C15" s="1">
         <v>30</v>
       </c>
       <c r="D15" s="1" t="s">
@@ -2000,14 +2094,14 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="16">
-      <c r="A16" s="10">
+    <row r="16" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="C16" s="10">
+      <c r="C16" s="1">
         <v>109.6</v>
       </c>
       <c r="D16" s="1" t="s">
@@ -2020,14 +2114,14 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="16">
-      <c r="A17" s="10">
+    <row r="17" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="C17" s="10">
+      <c r="C17" s="1">
         <v>34.200000000000003</v>
       </c>
       <c r="D17" s="1" t="s">
@@ -2040,14 +2134,14 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="16">
-      <c r="A18" s="10">
+    <row r="18" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
         <v>17</v>
       </c>
       <c r="B18" s="8" t="s">
         <v>70</v>
       </c>
-      <c r="C18" s="10">
+      <c r="C18" s="1">
         <v>312</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2060,17 +2154,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="16">
-      <c r="A19" s="10">
+    <row r="19" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
         <v>18</v>
       </c>
       <c r="B19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="10">
+      <c r="C19" s="1">
         <v>14.1</v>
       </c>
-      <c r="D19" s="10"/>
+      <c r="D19" s="1"/>
       <c r="E19" s="4" t="s">
         <v>6</v>
       </c>
@@ -2078,14 +2172,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="16">
-      <c r="A20" s="10">
+    <row r="20" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
         <v>19</v>
       </c>
       <c r="B20" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="10">
+      <c r="C20" s="1">
         <v>57.7</v>
       </c>
       <c r="D20" s="1" t="s">
@@ -2098,14 +2192,14 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="16">
-      <c r="A21" s="10">
+    <row r="21" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>20</v>
       </c>
       <c r="B21" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="C21" s="10">
+      <c r="C21" s="1">
         <v>46</v>
       </c>
       <c r="D21" s="1" t="s">
@@ -2118,17 +2212,17 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="16">
-      <c r="A22" s="10">
+    <row r="22" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>21</v>
       </c>
       <c r="B22" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="10">
+      <c r="C22" s="1">
         <v>9.6</v>
       </c>
-      <c r="D22" s="10"/>
+      <c r="D22" s="1"/>
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
@@ -2136,17 +2230,17 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="16">
-      <c r="A23" s="10">
+    <row r="23" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>22</v>
       </c>
       <c r="B23" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="10">
+      <c r="C23" s="1">
         <v>16.899999999999999</v>
       </c>
-      <c r="D23" s="10"/>
+      <c r="D23" s="1"/>
       <c r="E23" s="4" t="s">
         <v>6</v>
       </c>
@@ -2154,14 +2248,14 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="10">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C24" s="10">
+      <c r="C24" s="1">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D24" s="1" t="s">
@@ -2174,14 +2268,14 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="16">
-      <c r="A25" s="10">
+    <row r="25" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
         <v>24</v>
       </c>
       <c r="B25" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="10">
+      <c r="C25" s="1">
         <v>13</v>
       </c>
       <c r="D25" s="1" t="s">
@@ -2194,17 +2288,17 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="16">
-      <c r="A26" s="10">
+    <row r="26" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
         <v>25</v>
       </c>
       <c r="B26" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="C26" s="10">
+      <c r="C26" s="1">
         <v>28.6</v>
       </c>
-      <c r="D26" s="10"/>
+      <c r="D26" s="1"/>
       <c r="E26" s="4" t="s">
         <v>6</v>
       </c>
@@ -2212,17 +2306,17 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="10">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="10">
+      <c r="C27" s="1">
         <v>0.03</v>
       </c>
-      <c r="D27" s="10"/>
+      <c r="D27" s="1"/>
       <c r="E27" s="4" t="s">
         <v>51</v>
       </c>
@@ -2230,17 +2324,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="10">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
         <v>27</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C28" s="10">
+      <c r="C28" s="1">
         <v>0.5</v>
       </c>
-      <c r="D28" s="10"/>
+      <c r="D28" s="1"/>
       <c r="E28" s="4" t="s">
         <v>6</v>
       </c>
@@ -2248,17 +2342,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
-      <c r="A29" s="10">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
         <v>28</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C29" s="10">
+      <c r="C29" s="1">
         <v>0.03</v>
       </c>
-      <c r="D29" s="10"/>
+      <c r="D29" s="1"/>
       <c r="E29" s="4" t="s">
         <v>51</v>
       </c>
@@ -2266,17 +2360,17 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="10">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
         <v>29</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="10">
+      <c r="C30" s="1">
         <v>0.4</v>
       </c>
-      <c r="D30" s="10"/>
+      <c r="D30" s="1"/>
       <c r="E30" s="4" t="s">
         <v>6</v>
       </c>
@@ -2284,17 +2378,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="10">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
         <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C31" s="10">
+      <c r="C31" s="1">
         <v>1.6E-2</v>
       </c>
-      <c r="D31" s="10"/>
+      <c r="D31" s="1"/>
       <c r="E31" s="4" t="s">
         <v>51</v>
       </c>
@@ -2302,17 +2396,17 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="10">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
         <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C32" s="10">
+      <c r="C32" s="1">
         <v>0.34</v>
       </c>
-      <c r="D32" s="10"/>
+      <c r="D32" s="1"/>
       <c r="E32" s="4" t="s">
         <v>6</v>
       </c>
@@ -2324,4 +2418,458 @@
   <phoneticPr fontId="5" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A5916D-B259-4FB1-B2DD-6C3798B162E6}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H21" sqref="H21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.4609375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.3828125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5.42</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.22</v>
+      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C4" s="10">
+        <v>3.72</v>
+      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="10">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="10">
+        <v>0.32</v>
+      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="10">
+        <v>22.5</v>
+      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C9" s="10">
+        <v>68.8</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="10">
+        <v>2.5</v>
+      </c>
+      <c r="D10" s="11"/>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C11" s="10">
+        <v>5.9</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.3</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2.48</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="10">
+        <v>89</v>
+      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10">
+        <v>26.1</v>
+      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="10">
+        <v>105.1</v>
+      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="10">
+        <v>35.799999999999997</v>
+      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="10">
+        <v>341</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="10">
+        <v>14.3</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="10">
+        <v>37</v>
+      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="10">
+        <v>8.4</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="10">
+        <v>16.8</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="10">
+        <v>24.3</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/杜子期血常规new.xlsx
+++ b/杜子期血常规new.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\felixdu\work\src\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD25CEAE-4629-4515-8A9E-23C1DD59EDEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414DEC6F-822F-43E2-A100-3EC3CEADCAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-86" yWindow="0" windowWidth="16629" windowHeight="17880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="106">
   <si>
     <t/>
   </si>
@@ -797,7 +797,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -829,7 +829,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1147,7 +1146,7 @@
   <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:F33"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -1804,7 +1803,7 @@
   <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:F32"/>
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -2425,7 +2424,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -2482,7 +2481,9 @@
       <c r="C3" s="10">
         <v>1.22</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E3" s="4" t="s">
         <v>51</v>
       </c>
@@ -2500,7 +2501,9 @@
       <c r="C4" s="10">
         <v>3.72</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E4" s="4" t="s">
         <v>51</v>
       </c>
@@ -2518,7 +2521,9 @@
       <c r="C5" s="10">
         <v>0.14000000000000001</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E5" s="4" t="s">
         <v>51</v>
       </c>
@@ -2572,7 +2577,9 @@
       <c r="C8" s="10">
         <v>22.5</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E8" s="4" t="s">
         <v>6</v>
       </c>
@@ -2590,7 +2597,9 @@
       <c r="C9" s="10">
         <v>68.8</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E9" s="4" t="s">
         <v>6</v>
       </c>
@@ -2608,7 +2617,9 @@
       <c r="C10" s="10">
         <v>2.5</v>
       </c>
-      <c r="D10" s="11"/>
+      <c r="D10" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E10" s="4" t="s">
         <v>6</v>
       </c>
@@ -2626,7 +2637,9 @@
       <c r="C11" s="10">
         <v>5.9</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E11" s="4" t="s">
         <v>6</v>
       </c>
@@ -2662,7 +2675,9 @@
       <c r="C13" s="10">
         <v>2.48</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E13" s="4" t="s">
         <v>53</v>
       </c>
@@ -2680,7 +2695,9 @@
       <c r="C14" s="10">
         <v>89</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E14" s="4" t="s">
         <v>41</v>
       </c>
@@ -2698,7 +2715,9 @@
       <c r="C15" s="10">
         <v>26.1</v>
       </c>
-      <c r="D15" s="1"/>
+      <c r="D15" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E15" s="4" t="s">
         <v>6</v>
       </c>
@@ -2716,7 +2735,9 @@
       <c r="C16" s="10">
         <v>105.1</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E16" s="4" t="s">
         <v>46</v>
       </c>
@@ -2734,7 +2755,9 @@
       <c r="C17" s="10">
         <v>35.799999999999997</v>
       </c>
-      <c r="D17" s="1"/>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="E17" s="4" t="s">
         <v>48</v>
       </c>
@@ -2788,7 +2811,9 @@
       <c r="C20" s="10">
         <v>37</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E20" s="4" t="s">
         <v>51</v>
       </c>
@@ -2842,7 +2867,9 @@
       <c r="C23" s="10">
         <v>0.03</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
       <c r="E23" s="4" t="s">
         <v>6</v>
       </c>

--- a/杜子期血常规new.xlsx
+++ b/杜子期血常规new.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\felixdu\work\src\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{414DEC6F-822F-43E2-A100-3EC3CEADCAF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08DBFF1-498B-405E-B5B9-5172EF080F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-86" yWindow="0" windowWidth="16629" windowHeight="17880" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-01-13" sheetId="1" r:id="rId1"/>
     <sheet name="2023-02-07" sheetId="2" r:id="rId2"/>
     <sheet name="2024-05-26" sheetId="3" r:id="rId3"/>
+    <sheet name="2024-07-14" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="106">
   <si>
     <t/>
   </si>
@@ -2423,8 +2424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A5916D-B259-4FB1-B2DD-6C3798B162E6}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
@@ -2899,4 +2900,484 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B577B90-D3AB-43B6-9D8B-3C1339EB13CD}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.3046875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.61328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10">
+        <v>3.93</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="10">
+        <v>0.85</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="10">
+        <v>21.6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="10">
+        <v>2.87</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="10">
+        <v>73.099999999999994</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.09</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="10">
+        <v>3</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.1</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2.5099999999999998</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="10">
+        <v>89</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10">
+        <v>26.4</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="10">
+        <v>105</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="10">
+        <v>35.6</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="10">
+        <v>337</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="10">
+        <v>14.4</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="10">
+        <v>28</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="10">
+        <v>8.5</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="10">
+        <v>16.3</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.02</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="10">
+        <v>23.3</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/杜子期血常规new.xlsx
+++ b/杜子期血常规new.xlsx
@@ -1,22 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl.localhost\Ubuntu-24.04\home\felixdu\work\src\seven\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C08DBFF1-498B-405E-B5B9-5172EF080F51}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3905DF3E-A6CD-46AD-9DD7-3C3321C9069A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="2023-01-13" sheetId="1" r:id="rId1"/>
     <sheet name="2023-02-07" sheetId="2" r:id="rId2"/>
     <sheet name="2024-05-26" sheetId="3" r:id="rId3"/>
     <sheet name="2024-07-14" sheetId="4" r:id="rId4"/>
+    <sheet name="2024-08-02" sheetId="6" r:id="rId5"/>
+    <sheet name="2024-08-11" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="106">
   <si>
     <t/>
   </si>
@@ -1150,18 +1152,18 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.84375" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.3046875" style="5" customWidth="1"/>
-    <col min="2" max="2" width="23.4609375" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.15234375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="8.3046875" style="3" customWidth="1"/>
-    <col min="5" max="5" width="13.84375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="11.4609375" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.4609375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.26953125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.1796875" style="5" customWidth="1"/>
+    <col min="4" max="4" width="8.26953125" style="3" customWidth="1"/>
+    <col min="5" max="5" width="13.81640625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="11.453125" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.453125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1181,7 +1183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1199,7 +1201,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1219,7 +1221,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1239,7 +1241,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1259,7 +1261,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1279,7 +1281,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1299,7 +1301,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1319,7 +1321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1339,7 +1341,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1359,7 +1361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -1379,7 +1381,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -1397,7 +1399,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -1415,7 +1417,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -1435,7 +1437,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -1455,7 +1457,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -1475,7 +1477,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -1495,7 +1497,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1515,7 +1517,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -1533,7 +1535,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -1551,7 +1553,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -1569,7 +1571,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -1587,7 +1589,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -1605,7 +1607,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -1625,7 +1627,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -1645,7 +1647,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -1665,7 +1667,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -1683,7 +1685,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -1701,7 +1703,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -1737,7 +1739,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -1755,7 +1757,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="1">
         <v>32</v>
       </c>
@@ -1807,13 +1809,13 @@
       <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.07421875" defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.08984375" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="24" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.69140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -1833,7 +1835,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -1851,7 +1853,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -1869,7 +1871,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -1887,7 +1889,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -1905,7 +1907,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -1923,7 +1925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -1941,7 +1943,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -1961,7 +1963,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -1981,7 +1983,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -1998,7 +2000,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2016,7 +2018,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2034,7 +2036,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2054,7 +2056,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2074,7 +2076,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2094,7 +2096,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2114,7 +2116,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2134,7 +2136,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2154,7 +2156,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2172,7 +2174,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2192,7 +2194,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2212,7 +2214,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2230,7 +2232,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2248,7 +2250,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2268,7 +2270,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A25" s="1">
         <v>24</v>
       </c>
@@ -2288,7 +2290,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A26" s="1">
         <v>25</v>
       </c>
@@ -2306,7 +2308,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="1">
         <v>26</v>
       </c>
@@ -2324,7 +2326,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="1">
         <v>27</v>
       </c>
@@ -2342,7 +2344,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="1">
         <v>28</v>
       </c>
@@ -2360,7 +2362,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>29</v>
       </c>
@@ -2378,7 +2380,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>30</v>
       </c>
@@ -2396,7 +2398,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>31</v>
       </c>
@@ -2428,13 +2430,13 @@
       <selection sqref="A1:F24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.4609375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.3828125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -2454,7 +2456,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2472,7 +2474,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2492,7 +2494,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -2512,7 +2514,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -2532,7 +2534,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -2550,7 +2552,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -2568,7 +2570,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -2588,7 +2590,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -2608,7 +2610,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -2628,7 +2630,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -2648,7 +2650,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -2666,7 +2668,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -2686,7 +2688,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -2706,7 +2708,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -2726,7 +2728,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -2746,7 +2748,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -2766,7 +2768,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -2784,7 +2786,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -2802,7 +2804,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -2822,7 +2824,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -2840,7 +2842,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -2858,7 +2860,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -2878,7 +2880,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -2906,17 +2908,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B577B90-D3AB-43B6-9D8B-3C1339EB13CD}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.45" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="23.3046875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.61328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
@@ -2936,7 +2938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -2954,7 +2956,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -2974,7 +2976,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>7</v>
       </c>
@@ -2994,7 +2996,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -3012,7 +3014,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>8</v>
       </c>
@@ -3032,7 +3034,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>4</v>
       </c>
@@ -3052,7 +3054,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>9</v>
       </c>
@@ -3072,7 +3074,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>5</v>
       </c>
@@ -3090,7 +3092,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>10</v>
       </c>
@@ -3108,7 +3110,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -3128,7 +3130,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="12" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -3146,7 +3148,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
@@ -3166,7 +3168,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
@@ -3186,7 +3188,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
@@ -3206,7 +3208,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
@@ -3226,7 +3228,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
@@ -3246,7 +3248,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -3264,7 +3266,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>18</v>
       </c>
@@ -3282,7 +3284,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A20" s="1">
         <v>19</v>
       </c>
@@ -3302,7 +3304,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A21" s="1">
         <v>20</v>
       </c>
@@ -3320,7 +3322,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A22" s="1">
         <v>21</v>
       </c>
@@ -3338,7 +3340,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>22</v>
       </c>
@@ -3358,7 +3360,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="13.75" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>23</v>
       </c>
@@ -3367,6 +3369,964 @@
       </c>
       <c r="C24" s="10">
         <v>23.3</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC13767D-6692-4229-B360-07BBD296AB47}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10">
+        <v>4.29</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.0900000000000001</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="10">
+        <v>25.3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3.02</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="10">
+        <v>70.7</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2.7</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="10">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.01</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.2</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="10">
+        <v>83</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10">
+        <v>24.6</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="10">
+        <v>106.9</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="10">
+        <v>35.9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="10">
+        <v>337</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="10">
+        <v>14.4</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="10">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="10">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="10">
+        <v>16.3</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.03</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="10">
+        <v>25.7</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F24" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32763AE0-02C7-45B0-B55D-90DD32E1BF22}">
+  <dimension ref="A1:F24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="23.26953125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.6328125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="10">
+        <v>5.65</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="10">
+        <v>1.66</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>7</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C4" s="10">
+        <v>29.3</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="C5" s="10">
+        <v>3.49</v>
+      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>8</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C6" s="10">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F6" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>4</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="10">
+        <v>0.12</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F7" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>9</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="10">
+        <v>2.1</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C9" s="10">
+        <v>0.33</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="C10" s="10">
+        <v>5.8</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>6</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C11" s="10">
+        <v>0.05</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" s="10">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F12" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="C13" s="10">
+        <v>2.42</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="F13" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C14" s="10">
+        <v>87</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="10">
+        <v>26</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="10">
+        <v>107.6</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C17" s="10">
+        <v>35.9</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="F17" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="C18" s="10">
+        <v>335</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="F18" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C19" s="10">
+        <v>14.3</v>
+      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F19" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="10">
+        <v>42</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21" s="10">
+        <v>9.1</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="C22" s="10">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0.04</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="F23" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="14.5" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="10">
+        <v>26.8</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="4" t="s">
